--- a/generated_excel.xlsx
+++ b/generated_excel.xlsx
@@ -26,7 +26,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>Tue Jun 04 14:28:09 IST 2024</t>
+    <t>Fri Jun 07 05:43:28 IST 2024</t>
   </si>
 </sst>
 </file>

--- a/generated_excel.xlsx
+++ b/generated_excel.xlsx
@@ -26,7 +26,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>Fri Jun 07 05:43:28 IST 2024</t>
+    <t>Wed Jun 19 11:10:08 IST 2024</t>
   </si>
 </sst>
 </file>
